--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110574.3977788745</v>
+        <v>108135.9246791282</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>126.749822661279</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>81.98502830513246</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>206.2972210849231</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.444282854096355</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>71.31340860082788</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>146.689562139581</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>326.452304119939</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>281.9408634908496</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>147.8732048663676</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>32.93805507567788</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>188.6059442291534</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>163.0860508096764</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>266.7053137001737</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>61.17118126752713</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>100.2041656279965</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634789</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>41.02686156550128</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>1.594095449514225</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428256</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.514489367197</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="C2" t="n">
-        <v>1221.551972426786</v>
+        <v>552.8079389392158</v>
       </c>
       <c r="D2" t="n">
-        <v>863.2862738200351</v>
+        <v>194.5422403324653</v>
       </c>
       <c r="E2" t="n">
-        <v>477.498021221791</v>
+        <v>194.5422403324653</v>
       </c>
       <c r="F2" t="n">
-        <v>66.51211643218342</v>
+        <v>194.5422403324653</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>194.5422403324653</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3242.792661704996</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3242.792661704996</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3242.792661704996</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2911.729774361425</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2558.961119091311</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>2185.495360830231</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.114329431319</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986295</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>551.0642295677645</v>
+        <v>142.0249360836221</v>
       </c>
       <c r="C4" t="n">
-        <v>382.1280466398576</v>
+        <v>142.0249360836221</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>142.0249360836221</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>142.0249360836221</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>138.5458624936257</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>138.5458624936257</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>138.5458624936257</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4516,22 +4516,22 @@
         <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1497.606931784382</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>1242.922443578495</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W4" t="n">
-        <v>953.5052735415344</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X4" t="n">
-        <v>953.5052735415344</v>
+        <v>362.8175152271522</v>
       </c>
       <c r="Y4" t="n">
-        <v>732.7126943980043</v>
+        <v>142.0249360836221</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1561.900772669911</v>
+        <v>1243.280836875046</v>
       </c>
       <c r="C5" t="n">
-        <v>1561.900772669911</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="D5" t="n">
-        <v>1561.900772669911</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,7 +4586,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2393.48576717606</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645723</v>
+        <v>2020.02000891498</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669911</v>
+        <v>1629.880676939168</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>532.2446860521933</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C7" t="n">
-        <v>532.2446860521933</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D7" t="n">
-        <v>382.1280466398576</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1586.241790312928</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1297.138923438571</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1042.454435232684</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>753.0372651957234</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X7" t="n">
-        <v>753.0372651957234</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="Y7" t="n">
-        <v>532.2446860521933</v>
+        <v>647.3667606649364</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2196.097994299123</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
-        <v>1827.135477358712</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1468.869778751961</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1083.081526153717</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>672.0956213641095</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>257.023171209106</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218343</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X8" t="n">
-        <v>2972.837166339057</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y8" t="n">
-        <v>2582.697834363245</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1361.01298720966</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.613680441807</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1091.613680441807</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.8888553856862</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>639.9526724577793</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>489.8360330454435</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>341.9229394630504</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>195.03299196514</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159259</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,34 +5501,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191923</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349507</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061502</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.043492616109</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.3099000622252</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3737171343183</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2570777219826</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>449.3439841395895</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>302.4540366416791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>135.257937356559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934012</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035995</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892465</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3090381835199</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192507</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6227,19 +6227,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,19 +6312,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,16 +6601,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,37 +6713,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,22 +6838,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6917,70 +6917,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,22 +7075,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7260,19 +7260,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611464</v>
@@ -7400,37 +7400,37 @@
         <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362695</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398594</v>
@@ -7454,7 +7454,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7491,7 +7491,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
         <v>1072.713683962606</v>
@@ -7503,13 +7503,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797189</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>27.20273348304334</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>25.03901180901021</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>65.31997266427236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>32.89260457060008</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>99.26785128072261</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>284.9289028870768</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459311</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219413</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194107</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406865</v>
+        <v>317255.8761406863</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
@@ -26323,37 +26323,37 @@
         <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="G2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.304868253</v>
       </c>
       <c r="H2" t="n">
         <v>343037.3048682529</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.304868253</v>
       </c>
       <c r="J2" t="n">
-        <v>343037.3048682525</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="K2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="N2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="L2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>343037.3048682526</v>
       </c>
-      <c r="N2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>343037.3048682528</v>
-      </c>
-      <c r="P2" t="n">
-        <v>343037.3048682525</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49629.01520551668</v>
+        <v>49629.01520551657</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818169</v>
@@ -26445,16 +26445,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
+        <v>12996.8641468305</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12996.86414683049</v>
+      </c>
+      <c r="N4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="M4" t="n">
-        <v>12996.86414683046</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12996.86414683046</v>
-      </c>
       <c r="O4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1169051.825353816</v>
+        <v>-1169238.218742356</v>
       </c>
       <c r="C6" t="n">
-        <v>148824.9127127457</v>
+        <v>148824.9127127458</v>
       </c>
       <c r="D6" t="n">
         <v>148824.9127127454</v>
       </c>
       <c r="E6" t="n">
-        <v>-96494.55090983989</v>
+        <v>-96529.28883527545</v>
       </c>
       <c r="F6" t="n">
-        <v>228917.910897515</v>
+        <v>228883.1729720795</v>
       </c>
       <c r="G6" t="n">
-        <v>228917.9108975154</v>
+        <v>228883.1729720797</v>
       </c>
       <c r="H6" t="n">
-        <v>228917.910897515</v>
+        <v>228883.1729720797</v>
       </c>
       <c r="I6" t="n">
-        <v>228917.9108975153</v>
+        <v>228883.1729720797</v>
       </c>
       <c r="J6" t="n">
-        <v>11386.70850023745</v>
+        <v>11351.97057480193</v>
       </c>
       <c r="K6" t="n">
-        <v>228917.9108975151</v>
+        <v>228883.1729720795</v>
       </c>
       <c r="L6" t="n">
-        <v>228917.9108975151</v>
+        <v>228883.1729720795</v>
       </c>
       <c r="M6" t="n">
-        <v>143862.8829620032</v>
+        <v>143828.1450365678</v>
       </c>
       <c r="N6" t="n">
-        <v>228917.910897515</v>
+        <v>228883.1729720794</v>
       </c>
       <c r="O6" t="n">
-        <v>228917.9108975149</v>
+        <v>228883.1729720794</v>
       </c>
       <c r="P6" t="n">
-        <v>228917.910897515</v>
+        <v>228883.1729720795</v>
       </c>
     </row>
   </sheetData>
@@ -26750,7 +26750,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>167.8579417260415</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>179.9407175711305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>141.9767651688349</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>139.5222760660319</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>55.47806595232277</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>67.30010522656346</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>71.67574440980164</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>192.7716003133593</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>106.0018201581671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>40.83191932994379</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>19.81768463641725</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>164.53847412151</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29278,19 +29278,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-9.00399754755199e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319862</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,10 +32549,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>258.3858318060507</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,7 +32564,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,16 +33260,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33500,19 +33500,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663297</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565758</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565758</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875417</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>120.5443928316917</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121313</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121313</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
